--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agt-Mas1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agt-Mas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>Mas1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H2">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I2">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J2">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5952233333333333</v>
+        <v>0.388631</v>
       </c>
       <c r="N2">
-        <v>1.78567</v>
+        <v>1.165893</v>
       </c>
       <c r="O2">
-        <v>0.3251404407432198</v>
+        <v>0.397839933555316</v>
       </c>
       <c r="P2">
-        <v>0.3251404407432198</v>
+        <v>0.397839933555316</v>
       </c>
       <c r="Q2">
-        <v>0.1038896853766667</v>
+        <v>0.04718071020566666</v>
       </c>
       <c r="R2">
-        <v>0.9350071683900001</v>
+        <v>0.424626391851</v>
       </c>
       <c r="S2">
-        <v>0.07893163400771032</v>
+        <v>0.1136303554792099</v>
       </c>
       <c r="T2">
-        <v>0.07893163400771032</v>
+        <v>0.1136303554792099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H3">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I3">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J3">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>1.135382</v>
       </c>
       <c r="O3">
-        <v>0.2067339451813148</v>
+        <v>0.3874286057467554</v>
       </c>
       <c r="P3">
-        <v>0.2067339451813148</v>
+        <v>0.3874286057467554</v>
       </c>
       <c r="Q3">
-        <v>0.06605614629933335</v>
+        <v>0.04594600800822223</v>
       </c>
       <c r="R3">
-        <v>0.5945053166940001</v>
+        <v>0.413514072074</v>
       </c>
       <c r="S3">
-        <v>0.05018707626993911</v>
+        <v>0.1106566899918743</v>
       </c>
       <c r="T3">
-        <v>0.0501870762699391</v>
+        <v>0.1106566899918743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H4">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I4">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J4">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0008719999999999999</v>
+        <v>0.1544643333333333</v>
       </c>
       <c r="N4">
-        <v>0.002616</v>
+        <v>0.4633930000000001</v>
       </c>
       <c r="O4">
-        <v>0.0004763295530441028</v>
+        <v>0.1581244936971048</v>
       </c>
       <c r="P4">
-        <v>0.0004763295530441026</v>
+        <v>0.1581244936971048</v>
       </c>
       <c r="Q4">
-        <v>0.000152198008</v>
+        <v>0.01875233048344445</v>
       </c>
       <c r="R4">
-        <v>0.001369782072</v>
+        <v>0.168770974351</v>
       </c>
       <c r="S4">
-        <v>0.0001156345542928818</v>
+        <v>0.04516324509760119</v>
       </c>
       <c r="T4">
-        <v>0.0001156345542928817</v>
+        <v>0.04516324509760118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H5">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I5">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J5">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8302706666666667</v>
+        <v>0.032571</v>
       </c>
       <c r="N5">
-        <v>2.490812</v>
+        <v>0.09771300000000001</v>
       </c>
       <c r="O5">
-        <v>0.4535349260997277</v>
+        <v>0.03334279683254861</v>
       </c>
       <c r="P5">
-        <v>0.4535349260997277</v>
+        <v>0.03334279683254861</v>
       </c>
       <c r="Q5">
-        <v>0.1449146118893333</v>
+        <v>0.003954195399</v>
       </c>
       <c r="R5">
-        <v>1.304231507004</v>
+        <v>0.035587758591</v>
       </c>
       <c r="S5">
-        <v>0.1101008927551076</v>
+        <v>0.009523312109207314</v>
       </c>
       <c r="T5">
-        <v>0.1101008927551076</v>
+        <v>0.009523312109207314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H6">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I6">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J6">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,42 +806,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02494766666666666</v>
+        <v>0.02272566666666667</v>
       </c>
       <c r="N6">
-        <v>0.07484299999999999</v>
+        <v>0.068177</v>
       </c>
       <c r="O6">
-        <v>0.0136276501293883</v>
+        <v>0.02326417016827512</v>
       </c>
       <c r="P6">
-        <v>0.01362765012938829</v>
+        <v>0.02326417016827512</v>
       </c>
       <c r="Q6">
-        <v>0.004354340792333333</v>
+        <v>0.002758948959888889</v>
       </c>
       <c r="R6">
-        <v>0.039189067131</v>
+        <v>0.024830540639</v>
       </c>
       <c r="S6">
-        <v>0.003308271004182778</v>
+        <v>0.006644672148735859</v>
       </c>
       <c r="T6">
-        <v>0.003308271004182778</v>
+        <v>0.006644672148735859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +856,40 @@
         <v>0.523617</v>
       </c>
       <c r="I7">
-        <v>0.2427616627057681</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J7">
-        <v>0.2427616627057681</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.000891</v>
+        <v>0.388631</v>
       </c>
       <c r="N7">
-        <v>0.002673</v>
+        <v>1.165893</v>
       </c>
       <c r="O7">
-        <v>0.0004867082933053848</v>
+        <v>0.397839933555316</v>
       </c>
       <c r="P7">
-        <v>0.0004867082933053848</v>
+        <v>0.397839933555316</v>
       </c>
       <c r="Q7">
-        <v>0.000155514249</v>
+        <v>0.067831266109</v>
       </c>
       <c r="R7">
-        <v>0.001399628241</v>
+        <v>0.6104813949810001</v>
       </c>
       <c r="S7">
-        <v>0.0001181541145355019</v>
+        <v>0.163365300076488</v>
       </c>
       <c r="T7">
-        <v>0.0001181541145355019</v>
+        <v>0.163365300076488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5444336666666667</v>
+        <v>0.174539</v>
       </c>
       <c r="H8">
-        <v>1.633301</v>
+        <v>0.523617</v>
       </c>
       <c r="I8">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J8">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5952233333333333</v>
+        <v>0.3784606666666667</v>
       </c>
       <c r="N8">
-        <v>1.78567</v>
+        <v>1.135382</v>
       </c>
       <c r="O8">
-        <v>0.3251404407432198</v>
+        <v>0.3874286057467554</v>
       </c>
       <c r="P8">
-        <v>0.3251404407432198</v>
+        <v>0.3874286057467554</v>
       </c>
       <c r="Q8">
-        <v>0.3240596218522223</v>
+        <v>0.06605614629933335</v>
       </c>
       <c r="R8">
-        <v>2.91653659667</v>
+        <v>0.5945053166940001</v>
       </c>
       <c r="S8">
-        <v>0.2462088067355095</v>
+        <v>0.1590900889973978</v>
       </c>
       <c r="T8">
-        <v>0.2462088067355095</v>
+        <v>0.1590900889973978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5444336666666667</v>
+        <v>0.174539</v>
       </c>
       <c r="H9">
-        <v>1.633301</v>
+        <v>0.523617</v>
       </c>
       <c r="I9">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J9">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3784606666666667</v>
+        <v>0.1544643333333333</v>
       </c>
       <c r="N9">
-        <v>1.135382</v>
+        <v>0.4633930000000001</v>
       </c>
       <c r="O9">
-        <v>0.2067339451813148</v>
+        <v>0.1581244936971048</v>
       </c>
       <c r="P9">
-        <v>0.2067339451813148</v>
+        <v>0.1581244936971048</v>
       </c>
       <c r="Q9">
-        <v>0.2060467284424445</v>
+        <v>0.02696005027566667</v>
       </c>
       <c r="R9">
-        <v>1.854420555982</v>
+        <v>0.242640452481</v>
       </c>
       <c r="S9">
-        <v>0.1565468689113757</v>
+        <v>0.06493077537848159</v>
       </c>
       <c r="T9">
-        <v>0.1565468689113757</v>
+        <v>0.06493077537848158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5444336666666667</v>
+        <v>0.174539</v>
       </c>
       <c r="H10">
-        <v>1.633301</v>
+        <v>0.523617</v>
       </c>
       <c r="I10">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J10">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.0008719999999999999</v>
+        <v>0.032571</v>
       </c>
       <c r="N10">
-        <v>0.002616</v>
+        <v>0.09771300000000001</v>
       </c>
       <c r="O10">
-        <v>0.0004763295530441028</v>
+        <v>0.03334279683254861</v>
       </c>
       <c r="P10">
-        <v>0.0004763295530441026</v>
+        <v>0.03334279683254861</v>
       </c>
       <c r="Q10">
-        <v>0.0004747461573333333</v>
+        <v>0.005684909769</v>
       </c>
       <c r="R10">
-        <v>0.004272715416</v>
+        <v>0.05116418792100001</v>
       </c>
       <c r="S10">
-        <v>0.000360694998751221</v>
+        <v>0.01369157681397339</v>
       </c>
       <c r="T10">
-        <v>0.0003606949987512209</v>
+        <v>0.01369157681397339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,75 +1083,75 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5444336666666667</v>
+        <v>0.174539</v>
       </c>
       <c r="H11">
-        <v>1.633301</v>
+        <v>0.523617</v>
       </c>
       <c r="I11">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J11">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.8302706666666667</v>
+        <v>0.02272566666666667</v>
       </c>
       <c r="N11">
-        <v>2.490812</v>
+        <v>0.068177</v>
       </c>
       <c r="O11">
-        <v>0.4535349260997277</v>
+        <v>0.02326417016827512</v>
       </c>
       <c r="P11">
-        <v>0.4535349260997277</v>
+        <v>0.02326417016827512</v>
       </c>
       <c r="Q11">
-        <v>0.4520273033791112</v>
+        <v>0.003966515134333334</v>
       </c>
       <c r="R11">
-        <v>4.068245730412</v>
+        <v>0.035698636209</v>
       </c>
       <c r="S11">
-        <v>0.3434340333446201</v>
+        <v>0.009552983046741619</v>
       </c>
       <c r="T11">
-        <v>0.3434340333446201</v>
+        <v>0.009552983046741617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,60 +1160,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5444336666666667</v>
+        <v>0.1291096666666667</v>
       </c>
       <c r="H12">
-        <v>1.633301</v>
+        <v>0.387329</v>
       </c>
       <c r="I12">
-        <v>0.7572383372942318</v>
+        <v>0.3037510008602889</v>
       </c>
       <c r="J12">
-        <v>0.7572383372942318</v>
+        <v>0.3037510008602889</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.02494766666666666</v>
+        <v>0.388631</v>
       </c>
       <c r="N12">
-        <v>0.07484299999999999</v>
+        <v>1.165893</v>
       </c>
       <c r="O12">
-        <v>0.0136276501293883</v>
+        <v>0.397839933555316</v>
       </c>
       <c r="P12">
-        <v>0.01362765012938829</v>
+        <v>0.397839933555316</v>
       </c>
       <c r="Q12">
-        <v>0.01358234963811111</v>
+        <v>0.05017601886633333</v>
       </c>
       <c r="R12">
-        <v>0.122241146743</v>
+        <v>0.451584169797</v>
       </c>
       <c r="S12">
-        <v>0.01031937912520552</v>
+        <v>0.1208442779996181</v>
       </c>
       <c r="T12">
-        <v>0.01031937912520551</v>
+        <v>0.1208442779996181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1222,232 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5444336666666667</v>
+        <v>0.1291096666666667</v>
       </c>
       <c r="H13">
-        <v>1.633301</v>
+        <v>0.387329</v>
       </c>
       <c r="I13">
-        <v>0.7572383372942318</v>
+        <v>0.3037510008602889</v>
       </c>
       <c r="J13">
-        <v>0.7572383372942318</v>
+        <v>0.3037510008602889</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3784606666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.135382</v>
+      </c>
+      <c r="O13">
+        <v>0.3874286057467554</v>
+      </c>
+      <c r="P13">
+        <v>0.3874286057467554</v>
+      </c>
+      <c r="Q13">
+        <v>0.04886293051977778</v>
+      </c>
+      <c r="R13">
+        <v>0.439766374678</v>
+      </c>
+      <c r="S13">
+        <v>0.1176818267574832</v>
+      </c>
+      <c r="T13">
+        <v>0.1176818267574832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1291096666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.387329</v>
+      </c>
+      <c r="I14">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="J14">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1544643333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.4633930000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1581244936971048</v>
+      </c>
+      <c r="P14">
+        <v>0.1581244936971048</v>
+      </c>
+      <c r="Q14">
+        <v>0.01994283858855556</v>
+      </c>
+      <c r="R14">
+        <v>0.179485547297</v>
+      </c>
+      <c r="S14">
+        <v>0.04803047322102202</v>
+      </c>
+      <c r="T14">
+        <v>0.04803047322102202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1291096666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.387329</v>
+      </c>
+      <c r="I15">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="J15">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.032571</v>
+      </c>
+      <c r="N15">
+        <v>0.09771300000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.03334279683254861</v>
+      </c>
+      <c r="P15">
+        <v>0.03334279683254861</v>
+      </c>
+      <c r="Q15">
+        <v>0.004205230953</v>
+      </c>
+      <c r="R15">
+        <v>0.037847078577</v>
+      </c>
+      <c r="S15">
+        <v>0.01012790790936791</v>
+      </c>
+      <c r="T15">
+        <v>0.01012790790936791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1291096666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.387329</v>
+      </c>
+      <c r="I16">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="J16">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.000891</v>
-      </c>
-      <c r="N13">
-        <v>0.002673</v>
-      </c>
-      <c r="O13">
-        <v>0.0004867082933053848</v>
-      </c>
-      <c r="P13">
-        <v>0.0004867082933053848</v>
-      </c>
-      <c r="Q13">
-        <v>0.000485090397</v>
-      </c>
-      <c r="R13">
-        <v>0.004365813573</v>
-      </c>
-      <c r="S13">
-        <v>0.000368554178769883</v>
-      </c>
-      <c r="T13">
-        <v>0.0003685541787698829</v>
+      <c r="M16">
+        <v>0.02272566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.068177</v>
+      </c>
+      <c r="O16">
+        <v>0.02326417016827512</v>
+      </c>
+      <c r="P16">
+        <v>0.02326417016827512</v>
+      </c>
+      <c r="Q16">
+        <v>0.002934103248111111</v>
+      </c>
+      <c r="R16">
+        <v>0.026406929233</v>
+      </c>
+      <c r="S16">
+        <v>0.007066514972797643</v>
+      </c>
+      <c r="T16">
+        <v>0.007066514972797642</v>
       </c>
     </row>
   </sheetData>
